--- a/python/experimental/compare EC and pyhton on abhi data unit and mod.xlsx
+++ b/python/experimental/compare EC and pyhton on abhi data unit and mod.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iitbacin-my.sharepoint.com/personal/22d1412_iitb_ac_in/Documents/3rd Semester/Fitting Inhomogenous Project/Code/python/experimental/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive - Indian Institute of Technology Bombay\3rd Semester\Fitting Inhomogenous Project\Code\python\experimental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{A8A5D645-7DFA-4784-84B3-B9E49DBD7A55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1229E8-53CE-417E-930A-DDB1592C92B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6660" tabRatio="373" firstSheet="3" activeTab="3" xr2:uid="{356321C6-8911-4290-981D-E214E04D53E7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6660" tabRatio="373" activeTab="2" xr2:uid="{356321C6-8911-4290-981D-E214E04D53E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Abhi analysis" sheetId="1" r:id="rId1"/>
-    <sheet name="Circle analysis" sheetId="3" r:id="rId2"/>
-    <sheet name="Circle Data" sheetId="2" r:id="rId3"/>
-    <sheet name="fitted data abhi" sheetId="4" r:id="rId4"/>
+    <sheet name="abhi analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="circle analysis" sheetId="3" r:id="rId2"/>
+    <sheet name="circle data" sheetId="2" r:id="rId3"/>
+    <sheet name="abhi data" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1155,39 +1155,6 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1200,16 +1167,43 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1219,6 +1213,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2237,29 +2237,29 @@
     </row>
     <row r="7" spans="3:39" x14ac:dyDescent="0.25">
       <c r="V7" s="8"/>
-      <c r="AA7" s="103" t="s">
+      <c r="AA7" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="AB7" s="103"/>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="102" t="s">
+      <c r="AB7" s="109"/>
+      <c r="AC7" s="109"/>
+      <c r="AD7" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="AE7" s="102"/>
-      <c r="AF7" s="102"/>
-      <c r="AG7" s="105" t="s">
+      <c r="AE7" s="108"/>
+      <c r="AF7" s="108"/>
+      <c r="AG7" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="93" t="s">
+      <c r="AH7" s="94"/>
+      <c r="AI7" s="94"/>
+      <c r="AJ7" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="AK7" s="94"/>
-      <c r="AL7" s="94" t="s">
+      <c r="AK7" s="104"/>
+      <c r="AL7" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="AM7" s="94"/>
+      <c r="AM7" s="104"/>
     </row>
     <row r="8" spans="3:39" x14ac:dyDescent="0.25">
       <c r="V8" s="8"/>
@@ -2350,18 +2350,18 @@
         <v>8</v>
       </c>
       <c r="N10" s="8"/>
-      <c r="P10" s="106" t="s">
+      <c r="P10" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="98" t="s">
+      <c r="Q10" s="95"/>
+      <c r="R10" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="S10" s="108"/>
-      <c r="T10" s="98" t="s">
+      <c r="S10" s="98"/>
+      <c r="T10" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="U10" s="99"/>
+      <c r="U10" s="106"/>
       <c r="V10" s="33"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
@@ -2410,12 +2410,12 @@
         <v>35</v>
       </c>
       <c r="N11" s="8"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="100"/>
-      <c r="U11" s="101"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="107"/>
       <c r="V11" s="33"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
@@ -2463,10 +2463,10 @@
       <c r="D12" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="104" t="s">
+      <c r="K12" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="104"/>
+      <c r="L12" s="93"/>
       <c r="M12" s="7" t="s">
         <v>53</v>
       </c>
@@ -3179,10 +3179,10 @@
         <v>45</v>
       </c>
       <c r="Q21" s="45"/>
-      <c r="R21" s="97" t="s">
+      <c r="R21" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="S21" s="97"/>
+      <c r="S21" s="105"/>
       <c r="T21" s="46"/>
       <c r="AA21" s="4">
         <v>12618.766</v>
@@ -3248,8 +3248,8 @@
       </c>
       <c r="Q22" s="47"/>
       <c r="R22" s="8"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="96"/>
+      <c r="S22" s="101"/>
+      <c r="T22" s="102"/>
       <c r="AA22" s="4">
         <v>10020.785</v>
       </c>
@@ -3887,10 +3887,10 @@
     </row>
     <row r="33" spans="4:39" x14ac:dyDescent="0.25">
       <c r="Q33" s="45"/>
-      <c r="R33" s="97" t="s">
+      <c r="R33" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="S33" s="97"/>
+      <c r="S33" s="105"/>
       <c r="T33" s="46"/>
       <c r="AA33" s="4">
         <v>795.25409000000002</v>
@@ -3956,8 +3956,8 @@
       </c>
       <c r="Q34" s="47"/>
       <c r="R34" s="8"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="96"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="102"/>
       <c r="AA34" s="4">
         <v>631.81964000000005</v>
       </c>
@@ -6684,11 +6684,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="AG7:AI7"/>
-    <mergeCell ref="P10:Q11"/>
-    <mergeCell ref="R10:S11"/>
-    <mergeCell ref="S34:T34"/>
     <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="AL7:AM7"/>
     <mergeCell ref="S22:T22"/>
@@ -6697,6 +6692,11 @@
     <mergeCell ref="T10:U11"/>
     <mergeCell ref="AD7:AF7"/>
     <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="AG7:AI7"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="R10:S11"/>
+    <mergeCell ref="S34:T34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6708,8 +6708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED35FB77-89A5-4E66-86DE-B4C5A3BCC7D9}">
   <dimension ref="A1:AV255"/>
   <sheetViews>
-    <sheetView topLeftCell="E209" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K207" sqref="K207"/>
+    <sheetView topLeftCell="O83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AP27" sqref="AP27:AR126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6728,10 +6728,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AH1" s="114" t="s">
+      <c r="AH1" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="AI1" s="95"/>
+      <c r="AI1" s="101"/>
       <c r="AP1" s="8"/>
       <c r="AQ1" s="81"/>
       <c r="AR1" s="48"/>
@@ -6856,10 +6856,10 @@
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="94"/>
+      <c r="C6" s="104"/>
       <c r="AF6" s="74"/>
       <c r="AG6" s="8" t="s">
         <v>34</v>
@@ -7482,18 +7482,18 @@
     </row>
     <row r="26" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="79"/>
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="111"/>
-      <c r="D26" s="110" t="s">
+      <c r="C26" s="114"/>
+      <c r="D26" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="111"/>
-      <c r="F26" s="110" t="s">
+      <c r="E26" s="114"/>
+      <c r="F26" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="111"/>
+      <c r="G26" s="114"/>
       <c r="AP26" s="71">
         <v>100</v>
       </c>
@@ -12073,10 +12073,10 @@
       </c>
     </row>
     <row r="156" spans="8:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M156" s="112" t="s">
+      <c r="M156" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="N156" s="113"/>
+      <c r="N156" s="111"/>
       <c r="T156" s="74">
         <v>40841496</v>
       </c>
@@ -13494,10 +13494,10 @@
     </row>
     <row r="200" spans="8:28" x14ac:dyDescent="0.25">
       <c r="H200" s="45"/>
-      <c r="I200" s="97" t="s">
+      <c r="I200" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="J200" s="97"/>
+      <c r="J200" s="105"/>
       <c r="K200" s="46"/>
       <c r="M200" s="45" t="s">
         <v>2</v>
@@ -13542,8 +13542,8 @@
     <row r="201" spans="8:28" x14ac:dyDescent="0.25">
       <c r="H201" s="47"/>
       <c r="I201" s="8"/>
-      <c r="J201" s="95"/>
-      <c r="K201" s="96"/>
+      <c r="J201" s="101"/>
+      <c r="K201" s="102"/>
       <c r="M201" s="47" t="s">
         <v>7</v>
       </c>
@@ -13944,10 +13944,10 @@
     </row>
     <row r="212" spans="5:22" x14ac:dyDescent="0.25">
       <c r="H212" s="45"/>
-      <c r="I212" s="97" t="s">
+      <c r="I212" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="J212" s="97"/>
+      <c r="J212" s="105"/>
       <c r="K212" s="46"/>
       <c r="M212" s="47"/>
       <c r="N212" s="8" t="s">
@@ -13975,8 +13975,8 @@
     <row r="213" spans="5:22" x14ac:dyDescent="0.25">
       <c r="H213" s="47"/>
       <c r="I213" s="8"/>
-      <c r="J213" s="95"/>
-      <c r="K213" s="96"/>
+      <c r="J213" s="101"/>
+      <c r="K213" s="102"/>
       <c r="M213" s="47"/>
       <c r="N213" s="8" t="s">
         <v>16</v>
@@ -14856,16 +14856,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="I212:J212"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="M156:N156"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="I200:J200"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="I212:J212"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14877,16 +14877,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809CEF52-3914-4345-A237-80731640A6E5}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="7" width="9.140625" style="8"/>
+    <col min="4" max="6" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="74">
         <v>50000000</v>
       </c>
@@ -14896,8 +14896,20 @@
       <c r="C1" s="75">
         <v>-1.8662292</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="8">
+        <v>1010.13</v>
+      </c>
+      <c r="E1" s="75">
+        <v>-1.0216384000000001</v>
+      </c>
+      <c r="F1" s="8">
+        <v>1010.121138</v>
+      </c>
+      <c r="G1">
+        <v>-1.0250821569999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="74">
         <v>40841496</v>
       </c>
@@ -14907,8 +14919,20 @@
       <c r="C2" s="75">
         <v>-1.9296335</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="8">
+        <v>1010.213</v>
+      </c>
+      <c r="E2" s="75">
+        <v>-1.1744781</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1010.2045879999999</v>
+      </c>
+      <c r="G2">
+        <v>-1.1782830310000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="74">
         <v>33360552</v>
       </c>
@@ -14918,8 +14942,20 @@
       <c r="C3" s="75">
         <v>-2.0222123000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="8">
+        <v>1010.3090999999999</v>
+      </c>
+      <c r="E3" s="75">
+        <v>-1.3498441000000001</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1010.30108</v>
+      </c>
+      <c r="G3">
+        <v>-1.354038995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="74">
         <v>27249896</v>
       </c>
@@ -14929,8 +14965,20 @@
       <c r="C4" s="75">
         <v>-2.1468918000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="8">
+        <v>1010.4202</v>
+      </c>
+      <c r="E4" s="75">
+        <v>-1.5509440999999999</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1010.412719</v>
+      </c>
+      <c r="G4">
+        <v>-1.5555576799999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="74">
         <v>22258530</v>
       </c>
@@ -14940,8 +14988,20 @@
       <c r="C5" s="75">
         <v>-2.3069402999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="8">
+        <v>1010.5489</v>
+      </c>
+      <c r="E5" s="75">
+        <v>-1.7814049999999999</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1010.541962</v>
+      </c>
+      <c r="G5">
+        <v>-1.7864652329999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="74">
         <v>18181432</v>
       </c>
@@ -14951,8 +15011,20 @@
       <c r="C6" s="75">
         <v>-2.5060375000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="8">
+        <v>1010.698</v>
+      </c>
+      <c r="E6" s="75">
+        <v>-2.0453142999999998</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1010.691694</v>
+      </c>
+      <c r="G6">
+        <v>-2.050847557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="74">
         <v>14851137</v>
       </c>
@@ -14962,8 +15034,20 @@
       <c r="C7" s="75">
         <v>-2.7483379999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="8">
+        <v>1010.8708</v>
+      </c>
+      <c r="E7" s="75">
+        <v>-2.3472613999999998</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1010.865293</v>
+      </c>
+      <c r="G7">
+        <v>-2.3532905959999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="74">
         <v>12130852</v>
       </c>
@@ -14973,8 +15057,20 @@
       <c r="C8" s="75">
         <v>-3.0385273000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="8">
+        <v>1011.0715</v>
+      </c>
+      <c r="E8" s="75">
+        <v>-2.6923745000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1011.066735</v>
+      </c>
+      <c r="G8">
+        <v>-2.6989179839999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
         <v>9908843</v>
       </c>
@@ -14984,8 +15080,20 @@
       <c r="C9" s="75">
         <v>-3.3818671999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="8">
+        <v>1011.3046000000001</v>
+      </c>
+      <c r="E9" s="75">
+        <v>-3.0863518999999999</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1011.300696</v>
+      </c>
+      <c r="G9">
+        <v>-3.0934209570000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="74">
         <v>8093839</v>
       </c>
@@ -14995,8 +15103,20 @@
       <c r="C10" s="75">
         <v>-3.7842286000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="8">
+        <v>1011.5756</v>
+      </c>
+      <c r="E10" s="75">
+        <v>-3.5354814999999999</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1011.572684</v>
+      </c>
+      <c r="G10">
+        <v>-3.5430781109999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="74">
         <v>6611289.5</v>
       </c>
@@ -15006,8 +15126,20 @@
       <c r="C11" s="75">
         <v>-4.2521019000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="8">
+        <v>1011.891</v>
+      </c>
+      <c r="E11" s="75">
+        <v>-4.0466413000000001</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1011.889198</v>
+      </c>
+      <c r="G11">
+        <v>-4.0547547450000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="74">
         <v>5400298.5</v>
       </c>
@@ -15017,8 +15149,20 @@
       <c r="C12" s="75">
         <v>-4.7925806</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="8">
+        <v>1012.2585</v>
+      </c>
+      <c r="E12" s="75">
+        <v>-4.6272739999999999</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1012.2579009999999</v>
+      </c>
+      <c r="G12">
+        <v>-4.63587623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="74">
         <v>4411125.5</v>
       </c>
@@ -15028,8 +15172,20 @@
       <c r="C13" s="75">
         <v>-5.4133034000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="8">
+        <v>1012.6871</v>
+      </c>
+      <c r="E13" s="75">
+        <v>-5.2853174000000003</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1012.6878359999999</v>
+      </c>
+      <c r="G13">
+        <v>-5.2943597440000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="74">
         <v>3603139</v>
       </c>
@@ -15039,8 +15195,20 @@
       <c r="C14" s="75">
         <v>-6.1223431000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="8">
+        <v>1013.1874</v>
+      </c>
+      <c r="E14" s="75">
+        <v>-6.0290870999999999</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1013.189658</v>
+      </c>
+      <c r="G14">
+        <v>-6.038493109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="74">
         <v>2943151.5</v>
       </c>
@@ -15050,9 +15218,20 @@
       <c r="C15" s="75">
         <v>-6.9280147999999997</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="8">
+        <v>1013.7721</v>
+      </c>
+      <c r="E15" s="75">
+        <v>-6.8670726000000002</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1013.775899</v>
+      </c>
+      <c r="G15">
+        <v>-6.8767329129999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="74">
         <v>2404054.2999999998</v>
       </c>
@@ -15062,8 +15241,20 @@
       <c r="C16" s="75">
         <v>-7.8385873000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="8">
+        <v>1014.4557</v>
+      </c>
+      <c r="E16" s="75">
+        <v>-7.8076391000000003</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1014.461247</v>
+      </c>
+      <c r="G16">
+        <v>-7.8174043519999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="74">
         <v>1963703.3</v>
       </c>
@@ -15073,8 +15264,20 @@
       <c r="C17" s="75">
         <v>-8.8618641</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="8">
+        <v>1015.2554</v>
+      </c>
+      <c r="E17" s="75">
+        <v>-8.8585978000000001</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1015.262831</v>
+      </c>
+      <c r="G17">
+        <v>-8.8682711370000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="74">
         <v>1604011.5</v>
       </c>
@@ -15084,8 +15287,20 @@
       <c r="C18" s="75">
         <v>-10.004591</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="8">
+        <v>1016.1912</v>
+      </c>
+      <c r="E18" s="75">
+        <v>-10.026603</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1016.200468</v>
+      </c>
+      <c r="G18">
+        <v>-10.03593515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="74">
         <v>1310204.5</v>
       </c>
@@ -15095,8 +15310,20 @@
       <c r="C19" s="75">
         <v>-11.271675999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="8">
+        <v>1017.2855</v>
+      </c>
+      <c r="E19" s="75">
+        <v>-11.316363000000001</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1017.296857</v>
+      </c>
+      <c r="G19">
+        <v>-11.325044460000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="74">
         <v>1070214.3</v>
       </c>
@@ -15106,8 +15333,20 @@
       <c r="C20" s="75">
         <v>-12.665164000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="8">
+        <v>1018.5643</v>
+      </c>
+      <c r="E20" s="75">
+        <v>-12.729611999999999</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1018.577615</v>
+      </c>
+      <c r="G20">
+        <v>-12.73727072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="74">
         <v>874182.94</v>
       </c>
@@ -15117,8 +15356,20 @@
       <c r="C21" s="75">
         <v>-14.182973</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="8">
+        <v>1020.0559</v>
+      </c>
+      <c r="E21" s="75">
+        <v>-14.26385</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1020.071099</v>
+      </c>
+      <c r="G21">
+        <v>-14.270054760000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="74">
         <v>714058.75</v>
       </c>
@@ -15128,8 +15379,20 @@
       <c r="C22" s="75">
         <v>-15.817387</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="8">
+        <v>1021.7909</v>
+      </c>
+      <c r="E22" s="75">
+        <v>-15.910854</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1021.807856</v>
+      </c>
+      <c r="G22">
+        <v>-15.91512225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="74">
         <v>583264.5</v>
       </c>
@@ -15139,8 +15402,20 @@
       <c r="C23" s="75">
         <v>-17.553395999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="8">
+        <v>1023.8012</v>
+      </c>
+      <c r="E23" s="75">
+        <v>-17.655054</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1023.819588</v>
+      </c>
+      <c r="G23">
+        <v>-17.65687011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="74">
         <v>476427.88</v>
       </c>
@@ -15150,8 +15425,20 @@
       <c r="C24" s="75">
         <v>-19.367004000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="8">
+        <v>1026.1179999999999</v>
+      </c>
+      <c r="E24" s="75">
+        <v>-19.471900999999999</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1026.1374579999999</v>
+      </c>
+      <c r="G24">
+        <v>-19.47074769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="74">
         <v>389160.53</v>
       </c>
@@ -15161,8 +15448,20 @@
       <c r="C25" s="75">
         <v>-21.223777999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="8">
+        <v>1028.7699</v>
+      </c>
+      <c r="E25" s="75">
+        <v>-21.326502000000001</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1028.789626</v>
+      </c>
+      <c r="G25">
+        <v>-21.32190782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="74">
         <v>317877.94</v>
       </c>
@@ -15172,8 +15471,20 @@
       <c r="C26" s="75">
         <v>-23.077984000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="8">
+        <v>1031.7787000000001</v>
+      </c>
+      <c r="E26" s="75">
+        <v>-23.172884</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1031.797982</v>
+      </c>
+      <c r="G26">
+        <v>-23.164477300000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="74">
         <v>259652.2</v>
       </c>
@@ -15183,8 +15494,20 @@
       <c r="C27" s="75">
         <v>-24.872805</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="8">
+        <v>1035.1564000000001</v>
+      </c>
+      <c r="E27" s="75">
+        <v>-24.954317</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1035.174217</v>
+      </c>
+      <c r="G27">
+        <v>-24.94190077</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="74">
         <v>212091.69</v>
       </c>
@@ -15194,8 +15517,20 @@
       <c r="C28" s="75">
         <v>-26.542090999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="8">
+        <v>1038.9001000000001</v>
+      </c>
+      <c r="E28" s="75">
+        <v>-26.605198000000001</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1038.9156029999999</v>
+      </c>
+      <c r="G28">
+        <v>-26.588809829999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="74">
         <v>173242.83</v>
       </c>
@@ -15205,8 +15540,20 @@
       <c r="C29" s="75">
         <v>-28.014012999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="8">
+        <v>1042.9893</v>
+      </c>
+      <c r="E29" s="75">
+        <v>-28.054753999999999</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1043.001152</v>
+      </c>
+      <c r="G29">
+        <v>-28.034731149999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="74">
         <v>141509.92000000001</v>
       </c>
@@ -15216,8 +15563,20 @@
       <c r="C30" s="75">
         <v>-29.216642</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="8">
+        <v>1047.3815999999999</v>
+      </c>
+      <c r="E30" s="75">
+        <v>-29.23263</v>
+      </c>
+      <c r="F30" s="8">
+        <v>1047.3890180000001</v>
+      </c>
+      <c r="G30">
+        <v>-29.209623919999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="74">
         <v>115589.53</v>
       </c>
@@ -15227,8 +15586,20 @@
       <c r="C31" s="75">
         <v>-30.085011999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="8">
+        <v>1052.0139999999999</v>
+      </c>
+      <c r="E31" s="75">
+        <v>-30.075800000000001</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1052.016116</v>
+      </c>
+      <c r="G31">
+        <v>-30.050767629999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="74">
         <v>94416.976999999999</v>
       </c>
@@ -15238,8 +15609,20 @@
       <c r="C32" s="75">
         <v>-30.568621</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="8">
+        <v>1056.8043</v>
+      </c>
+      <c r="E32" s="75">
+        <v>-30.535847</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1056.8006029999999</v>
+      </c>
+      <c r="G32">
+        <v>-30.509977150000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="74">
         <v>77122.608999999997</v>
       </c>
@@ -15249,8 +15632,20 @@
       <c r="C33" s="75">
         <v>-30.637941000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="8">
+        <v>1061.6570999999999</v>
+      </c>
+      <c r="E33" s="75">
+        <v>-30.585173000000001</v>
+      </c>
+      <c r="F33" s="8">
+        <v>1061.6473559999999</v>
+      </c>
+      <c r="G33">
+        <v>-30.5597703</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="74">
         <v>62996.050999999999</v>
       </c>
@@ -15260,8 +15655,20 @@
       <c r="C34" s="75">
         <v>-30.288494</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="8">
+        <v>1066.4711</v>
+      </c>
+      <c r="E34" s="75">
+        <v>-30.220766000000001</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1066.4557930000001</v>
+      </c>
+      <c r="G34">
+        <v>-30.19711689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="74">
         <v>51457.059000000001</v>
       </c>
@@ -15271,8 +15678,20 @@
       <c r="C35" s="75">
         <v>-29.541467999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="8">
+        <v>1071.1488999999999</v>
+      </c>
+      <c r="E35" s="75">
+        <v>-29.46463</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1071.128704</v>
+      </c>
+      <c r="G35">
+        <v>-29.443861829999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="74">
         <v>42031.663999999997</v>
       </c>
@@ -15282,8 +15701,20 @@
       <c r="C36" s="75">
         <v>-28.440761999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="8">
+        <v>1075.6047000000001</v>
+      </c>
+      <c r="E36" s="75">
+        <v>-28.360745999999999</v>
+      </c>
+      <c r="F36" s="8">
+        <v>1075.580459</v>
+      </c>
+      <c r="G36">
+        <v>-28.343717160000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="74">
         <v>34332.718999999997</v>
       </c>
@@ -15293,8 +15724,20 @@
       <c r="C37" s="75">
         <v>-27.047143999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="8">
+        <v>1079.7701</v>
+      </c>
+      <c r="E37" s="75">
+        <v>-26.969315999999999</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1079.7431320000001</v>
+      </c>
+      <c r="G37">
+        <v>-26.956560270000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="74">
         <v>28043.99</v>
       </c>
@@ -15304,8 +15747,20 @@
       <c r="C38" s="75">
         <v>-25.430921999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="8">
+        <v>1083.5984000000001</v>
+      </c>
+      <c r="E38" s="75">
+        <v>-25.359627</v>
+      </c>
+      <c r="F38" s="8">
+        <v>1083.56972</v>
+      </c>
+      <c r="G38">
+        <v>-25.351336459999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="74">
         <v>22907.168000000001</v>
       </c>
@@ -15315,8 +15770,20 @@
       <c r="C39" s="75">
         <v>-23.664591000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="8">
+        <v>1087.0636</v>
+      </c>
+      <c r="E39" s="75">
+        <v>-23.602910999999999</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1087.0344</v>
+      </c>
+      <c r="G39">
+        <v>-23.598983919999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="74">
         <v>18711.259999999998</v>
       </c>
@@ -15326,8 +15793,20 @@
       <c r="C40" s="75">
         <v>-21.816662000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="8">
+        <v>1090.1592000000001</v>
+      </c>
+      <c r="E40" s="75">
+        <v>-21.766408999999999</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1090.1303809999999</v>
+      </c>
+      <c r="G40">
+        <v>-21.76650639</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="74">
         <v>15283.915999999999</v>
       </c>
@@ -15337,8 +15816,20 @@
       <c r="C41" s="75">
         <v>-19.947323000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="8">
+        <v>1092.8938000000001</v>
+      </c>
+      <c r="E41" s="75">
+        <v>-19.909184</v>
+      </c>
+      <c r="F41" s="8">
+        <v>1092.866284</v>
+      </c>
+      <c r="G41">
+        <v>-19.912806960000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="74">
         <v>12484.359</v>
       </c>
@@ -15348,8 +15839,20 @@
       <c r="C42" s="75">
         <v>-18.106076999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="8">
+        <v>1095.2876000000001</v>
+      </c>
+      <c r="E42" s="75">
+        <v>-18.079837999999999</v>
+      </c>
+      <c r="F42" s="8">
+        <v>1095.261929</v>
+      </c>
+      <c r="G42">
+        <v>-18.08640265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="74">
         <v>10197.598</v>
       </c>
@@ -15359,8 +15862,20 @@
       <c r="C43" s="75">
         <v>-16.331047000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="8">
+        <v>1097.3678</v>
+      </c>
+      <c r="E43" s="75">
+        <v>-16.315850999999999</v>
+      </c>
+      <c r="F43" s="8">
+        <v>1097.3442990000001</v>
+      </c>
+      <c r="G43">
+        <v>-16.324752119999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="74">
         <v>8329.7021000000004</v>
       </c>
@@ -15370,8 +15885,20 @@
       <c r="C44" s="75">
         <v>-14.649525000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="8">
+        <v>1099.165</v>
+      </c>
+      <c r="E44" s="75">
+        <v>-14.644114</v>
+      </c>
+      <c r="F44" s="8">
+        <v>1099.144094</v>
+      </c>
+      <c r="G44">
+        <v>-14.65476634</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="74">
         <v>6803.9502000000002</v>
       </c>
@@ -15381,8 +15908,20 @@
       <c r="C45" s="75">
         <v>-13.079264</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="8">
+        <v>1100.7113999999999</v>
+      </c>
+      <c r="E45" s="75">
+        <v>-13.082186</v>
+      </c>
+      <c r="F45" s="8">
+        <v>1100.6930649999999</v>
+      </c>
+      <c r="G45">
+        <v>-13.09405486</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="74">
         <v>5557.6693999999998</v>
       </c>
@@ -15392,8 +15931,20 @@
       <c r="C46" s="75">
         <v>-11.630122</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="8">
+        <v>1102.038</v>
+      </c>
+      <c r="E46" s="75">
+        <v>-11.639873</v>
+      </c>
+      <c r="F46" s="8">
+        <v>1102.0221570000001</v>
+      </c>
+      <c r="G46">
+        <v>-11.65249478</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="74">
         <v>4539.6704</v>
       </c>
@@ -15403,8 +15954,20 @@
       <c r="C47" s="75">
         <v>-10.305758000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="8">
+        <v>1103.1736000000001</v>
+      </c>
+      <c r="E47" s="75">
+        <v>-10.320891</v>
+      </c>
+      <c r="F47" s="8">
+        <v>1103.1603150000001</v>
+      </c>
+      <c r="G47">
+        <v>-10.333877080000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="74">
         <v>3708.1387</v>
       </c>
@@ -15414,8 +15977,20 @@
       <c r="C48" s="75">
         <v>-9.1051941000000003</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="8">
+        <v>1104.1447000000001</v>
+      </c>
+      <c r="E48" s="75">
+        <v>-9.1243887000000008</v>
+      </c>
+      <c r="F48" s="8">
+        <v>1104.133842</v>
+      </c>
+      <c r="G48">
+        <v>-9.1374208800000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="74">
         <v>3028.9185000000002</v>
       </c>
@@ -15425,8 +16000,20 @@
       <c r="C49" s="75">
         <v>-8.0241670999999997</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="8">
+        <v>1104.9747</v>
+      </c>
+      <c r="E49" s="75">
+        <v>-8.0462570000000007</v>
+      </c>
+      <c r="F49" s="8">
+        <v>1104.966138</v>
+      </c>
+      <c r="G49">
+        <v>-8.0590888760000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="74">
         <v>2474.1111000000001</v>
       </c>
@@ -15436,8 +16023,20 @@
       <c r="C50" s="75">
         <v>-7.0562315</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="8">
+        <v>1105.6841999999999</v>
+      </c>
+      <c r="E50" s="75">
+        <v>-7.0802240000000003</v>
+      </c>
+      <c r="F50" s="8">
+        <v>1105.677702</v>
+      </c>
+      <c r="G50">
+        <v>-7.0926669760000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="74">
         <v>2020.9278999999999</v>
       </c>
@@ -15447,8 +16046,20 @@
       <c r="C51" s="75">
         <v>-6.1936235000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="8">
+        <v>1106.2909</v>
+      </c>
+      <c r="E51" s="75">
+        <v>-6.2186909000000004</v>
+      </c>
+      <c r="F51" s="8">
+        <v>1106.2862829999999</v>
+      </c>
+      <c r="G51">
+        <v>-6.2306097139999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="74">
         <v>1650.7543000000001</v>
       </c>
@@ -15458,8 +16069,20 @@
       <c r="C52" s="75">
         <v>-5.4279070000000003</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="8">
+        <v>1106.8099</v>
+      </c>
+      <c r="E52" s="75">
+        <v>-5.4533795999999999</v>
+      </c>
+      <c r="F52" s="8">
+        <v>1106.807131</v>
+      </c>
+      <c r="G52">
+        <v>-5.4646811780000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="74">
         <v>1348.3853999999999</v>
       </c>
@@ -15469,8 +16092,20 @@
       <c r="C53" s="75">
         <v>-4.7504505999999997</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="8">
+        <v>1107.2545</v>
+      </c>
+      <c r="E53" s="75">
+        <v>-4.7757974000000001</v>
+      </c>
+      <c r="F53" s="8">
+        <v>1107.2532670000001</v>
+      </c>
+      <c r="G53">
+        <v>-4.7864240090000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="74">
         <v>1101.4014999999999</v>
       </c>
@@ -15480,8 +16115,20 @@
       <c r="C54" s="75">
         <v>-4.1527542999999998</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="8">
+        <v>1107.6356000000001</v>
+      </c>
+      <c r="E54" s="75">
+        <v>-4.1775679999999999</v>
+      </c>
+      <c r="F54" s="8">
+        <v>1107.635773</v>
+      </c>
+      <c r="G54">
+        <v>-4.1874890950000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="74">
         <v>899.65764999999999</v>
       </c>
@@ -15491,8 +16138,20 @@
       <c r="C55" s="75">
         <v>-3.6266737</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="8">
+        <v>1107.9626000000001</v>
+      </c>
+      <c r="E55" s="75">
+        <v>-3.6506498000000001</v>
+      </c>
+      <c r="F55" s="8">
+        <v>1107.964054</v>
+      </c>
+      <c r="G55">
+        <v>-3.6598562019999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="74">
         <v>734.86725000000001</v>
       </c>
@@ -15502,8 +16161,20 @@
       <c r="C56" s="75">
         <v>-3.1645541000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="8">
+        <v>1108.2435</v>
+      </c>
+      <c r="E56" s="75">
+        <v>-3.1874747000000001</v>
+      </c>
+      <c r="F56" s="8">
+        <v>1108.246087</v>
+      </c>
+      <c r="G56">
+        <v>-3.195974133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="74">
         <v>600.26153999999997</v>
       </c>
@@ -15513,8 +16184,20 @@
       <c r="C57" s="75">
         <v>-2.7593095000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="8">
+        <v>1108.4851000000001</v>
+      </c>
+      <c r="E57" s="75">
+        <v>-2.7810277999999999</v>
+      </c>
+      <c r="F57" s="8">
+        <v>1108.4886300000001</v>
+      </c>
+      <c r="G57">
+        <v>-2.7888394870000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="74">
         <v>490.31155000000001</v>
       </c>
@@ -15524,8 +16207,20 @@
       <c r="C58" s="75">
         <v>-2.4044547000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="8">
+        <v>1108.6929</v>
+      </c>
+      <c r="E58" s="75">
+        <v>-2.4248802999999999</v>
+      </c>
+      <c r="F58" s="8">
+        <v>1108.6974150000001</v>
+      </c>
+      <c r="G58">
+        <v>-2.432032221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="74">
         <v>400.50112999999999</v>
       </c>
@@ -15535,8 +16230,20 @@
       <c r="C59" s="75">
         <v>-2.0941074</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="8">
+        <v>1108.8719000000001</v>
+      </c>
+      <c r="E59" s="75">
+        <v>-2.1131959</v>
+      </c>
+      <c r="F59" s="8">
+        <v>1108.877305</v>
+      </c>
+      <c r="G59">
+        <v>-2.1197214180000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="74">
         <v>327.1413</v>
       </c>
@@ -15546,8 +16253,20 @@
       <c r="C60" s="75">
         <v>-1.8229721000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="8">
+        <v>1109.0264</v>
+      </c>
+      <c r="E60" s="75">
+        <v>-1.8407134000000001</v>
+      </c>
+      <c r="F60" s="8">
+        <v>1109.0324310000001</v>
+      </c>
+      <c r="G60">
+        <v>-1.8466497369999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="74">
         <v>267.21877999999998</v>
       </c>
@@ -15557,8 +16276,20 @@
       <c r="C61" s="75">
         <v>-1.5863080000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="8">
+        <v>1109.1596999999999</v>
+      </c>
+      <c r="E61" s="75">
+        <v>-1.6027191999999999</v>
+      </c>
+      <c r="F61" s="8">
+        <v>1109.1663080000001</v>
+      </c>
+      <c r="G61">
+        <v>-1.6081053569999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="74">
         <v>218.27227999999999</v>
       </c>
@@ -15568,8 +16299,20 @@
       <c r="C62" s="75">
         <v>-1.3798927999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="8">
+        <v>1109.2746999999999</v>
+      </c>
+      <c r="E62" s="75">
+        <v>-1.3950108000000001</v>
+      </c>
+      <c r="F62" s="8">
+        <v>1109.281929</v>
+      </c>
+      <c r="G62">
+        <v>-1.3998862329999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="74">
         <v>178.29132000000001</v>
       </c>
@@ -15579,8 +16322,20 @@
       <c r="C63" s="75">
         <v>-1.19998</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="8">
+        <v>1109.3741</v>
+      </c>
+      <c r="E63" s="75">
+        <v>-1.213856</v>
+      </c>
+      <c r="F63" s="8">
+        <v>1109.3818490000001</v>
+      </c>
+      <c r="G63">
+        <v>-1.2182597829999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="74">
         <v>145.63368</v>
       </c>
@@ -15590,8 +16345,20 @@
       <c r="C64" s="75">
         <v>-1.0432565</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="8">
+        <v>1109.4601</v>
+      </c>
+      <c r="E64" s="75">
+        <v>-1.0559512</v>
+      </c>
+      <c r="F64" s="8">
+        <v>1109.4682519999999</v>
+      </c>
+      <c r="G64">
+        <v>-1.0599216490000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="74">
         <v>118.95793999999999</v>
       </c>
@@ -15601,8 +16368,20 @@
       <c r="C65" s="75">
         <v>-0.90680057000000003</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="8">
+        <v>1109.5344</v>
+      </c>
+      <c r="E65" s="75">
+        <v>-0.91838109000000001</v>
+      </c>
+      <c r="F65" s="8">
+        <v>1109.543005</v>
+      </c>
+      <c r="G65">
+        <v>-0.92195473100000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="74">
         <v>97.168403999999995</v>
       </c>
@@ -15612,8 +16391,20 @@
       <c r="C66" s="75">
         <v>-0.78804152999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="8">
+        <v>1109.5988</v>
+      </c>
+      <c r="E66" s="75">
+        <v>-0.79857844</v>
+      </c>
+      <c r="F66" s="8">
+        <v>1109.60771</v>
+      </c>
+      <c r="G66">
+        <v>-0.80178999200000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="74">
         <v>79.370056000000005</v>
       </c>
@@ -15623,8 +16414,20 @@
       <c r="C67" s="75">
         <v>-0.68472206999999996</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="8">
+        <v>1109.6545000000001</v>
+      </c>
+      <c r="E67" s="75">
+        <v>-0.69428718</v>
+      </c>
+      <c r="F67" s="8">
+        <v>1109.66374</v>
+      </c>
+      <c r="G67">
+        <v>-0.69716924800000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="74">
         <v>64.831833000000003</v>
       </c>
@@ -15634,8 +16437,20 @@
       <c r="C68" s="75">
         <v>-0.59486324000000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="8">
+        <v>1109.7028</v>
+      </c>
+      <c r="E68" s="75">
+        <v>-0.60352790000000001</v>
+      </c>
+      <c r="F68" s="8">
+        <v>1109.712278</v>
+      </c>
+      <c r="G68">
+        <v>-0.606111065</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="74">
         <v>52.956577000000003</v>
       </c>
@@ -15645,8 +16460,20 @@
       <c r="C69" s="75">
         <v>-0.51673268999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="8">
+        <v>1109.7445</v>
+      </c>
+      <c r="E69" s="75">
+        <v>-0.52456670999999999</v>
+      </c>
+      <c r="F69" s="8">
+        <v>1109.754338</v>
+      </c>
+      <c r="G69">
+        <v>-0.52687924799999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="74">
         <v>43.256515999999998</v>
       </c>
@@ -15656,8 +16483,20 @@
       <c r="C70" s="75">
         <v>-0.44881567</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="8">
+        <v>1109.7808</v>
+      </c>
+      <c r="E70" s="75">
+        <v>-0.45588635999999999</v>
+      </c>
+      <c r="F70" s="8">
+        <v>1109.7907949999999</v>
+      </c>
+      <c r="G70">
+        <v>-0.45795440100000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="74">
         <v>35.333213999999998</v>
       </c>
@@ -15667,8 +16506,20 @@
       <c r="C71" s="75">
         <v>-0.38978901999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="8">
+        <v>1109.8123000000001</v>
+      </c>
+      <c r="E71" s="75">
+        <v>-0.39616056999999999</v>
+      </c>
+      <c r="F71" s="8">
+        <v>1109.8224049999999</v>
+      </c>
+      <c r="G71">
+        <v>-0.39800814899999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="74">
         <v>28.861225000000001</v>
       </c>
@@ -15678,8 +16529,20 @@
       <c r="C72" s="75">
         <v>-0.33849803000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="8">
+        <v>1109.8395</v>
+      </c>
+      <c r="E72" s="75">
+        <v>-0.34423115999999998</v>
+      </c>
+      <c r="F72" s="8">
+        <v>1109.849817</v>
+      </c>
+      <c r="G72">
+        <v>-0.34588027700000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="74">
         <v>23.574711000000001</v>
       </c>
@@ -15689,8 +16552,20 @@
       <c r="C73" s="75">
         <v>-0.29393565999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="8">
+        <v>1109.8630000000001</v>
+      </c>
+      <c r="E73" s="75">
+        <v>-0.29908741</v>
+      </c>
+      <c r="F73" s="8">
+        <v>1109.8735939999999</v>
+      </c>
+      <c r="G73">
+        <v>-0.30055814199999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="74">
         <v>19.256526999999998</v>
       </c>
@@ -15700,8 +16575,20 @@
       <c r="C74" s="75">
         <v>-0.25522434999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="8">
+        <v>1109.8834999999999</v>
+      </c>
+      <c r="E74" s="75">
+        <v>-0.25984791000000002</v>
+      </c>
+      <c r="F74" s="8">
+        <v>1109.8942219999999</v>
+      </c>
+      <c r="G74">
+        <v>-0.26115850099999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="74">
         <v>15.729307</v>
       </c>
@@ -15711,8 +16598,20 @@
       <c r="C75" s="75">
         <v>-0.22159967999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="8">
+        <v>1109.9014</v>
+      </c>
+      <c r="E75" s="75">
+        <v>-0.22574443</v>
+      </c>
+      <c r="F75" s="8">
+        <v>1109.91212</v>
+      </c>
+      <c r="G75">
+        <v>-0.22691146000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="74">
         <v>12.848167999999999</v>
       </c>
@@ -15722,8 +16621,20 @@
       <c r="C76" s="75">
         <v>-0.19239616000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="8">
+        <v>1109.9167</v>
+      </c>
+      <c r="E76" s="75">
+        <v>-0.19610769</v>
+      </c>
+      <c r="F76" s="8">
+        <v>1109.927651</v>
+      </c>
+      <c r="G76">
+        <v>-0.19714617600000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="74">
         <v>10.494768000000001</v>
       </c>
@@ -15733,8 +16644,20 @@
       <c r="C77" s="75">
         <v>-0.16703466</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="8">
+        <v>1109.9302</v>
+      </c>
+      <c r="E77" s="75">
+        <v>-0.1703549</v>
+      </c>
+      <c r="F77" s="8">
+        <v>1109.941131</v>
+      </c>
+      <c r="G77">
+        <v>-0.17127841999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="74">
         <v>8.5724400999999997</v>
       </c>
@@ -15744,8 +16667,20 @@
       <c r="C78" s="75">
         <v>-0.14501132</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="8">
+        <v>1109.9418000000001</v>
+      </c>
+      <c r="E78" s="75">
+        <v>-0.14797877000000001</v>
+      </c>
+      <c r="F78" s="8">
+        <v>1109.9528299999999</v>
+      </c>
+      <c r="G78">
+        <v>-0.148799548</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="74">
         <v>7.0022248999999999</v>
       </c>
@@ -15755,8 +16690,20 @@
       <c r="C79" s="75">
         <v>-0.125888</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="8">
+        <v>1109.9519</v>
+      </c>
+      <c r="E79" s="75">
+        <v>-0.12853782999999999</v>
+      </c>
+      <c r="F79" s="8">
+        <v>1109.962986</v>
+      </c>
+      <c r="G79">
+        <v>-0.129266881</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="74">
         <v>5.7196264000000001</v>
       </c>
@@ -15766,8 +16713,20 @@
       <c r="C80" s="75">
         <v>-0.10928378</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="8">
+        <v>1109.9607000000001</v>
+      </c>
+      <c r="E80" s="75">
+        <v>-0.11164804</v>
+      </c>
+      <c r="F80" s="8">
+        <v>1109.9718029999999</v>
+      </c>
+      <c r="G80">
+        <v>-0.112295251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="74">
         <v>4.6719618000000001</v>
       </c>
@@ -15777,8 +16736,20 @@
       <c r="C81" s="75">
         <v>-9.4867497999999995E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="8">
+        <v>1109.9683</v>
+      </c>
+      <c r="E81" s="75">
+        <v>-9.6975327E-2</v>
+      </c>
+      <c r="F81" s="8">
+        <v>1109.9794569999999</v>
+      </c>
+      <c r="G81">
+        <v>-9.7549602999999999E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="74">
         <v>3.8161980999999998</v>
       </c>
@@ -15788,8 +16759,20 @@
       <c r="C82" s="75">
         <v>-8.2351372000000006E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="8">
+        <v>1109.9748999999999</v>
+      </c>
+      <c r="E82" s="75">
+        <v>-8.4229215999999996E-2</v>
+      </c>
+      <c r="F82" s="8">
+        <v>1109.986103</v>
+      </c>
+      <c r="G82">
+        <v>-8.4738530000000006E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="74">
         <v>3.1171845999999999</v>
       </c>
@@ -15799,8 +16782,20 @@
       <c r="C83" s="75">
         <v>-7.1485340999999994E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="8">
+        <v>1109.9806000000001</v>
+      </c>
+      <c r="E83" s="75">
+        <v>-7.3157154000000002E-2</v>
+      </c>
+      <c r="F83" s="8">
+        <v>1109.9918729999999</v>
+      </c>
+      <c r="G83">
+        <v>-7.3608639000000003E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="74">
         <v>2.5462096000000001</v>
       </c>
@@ -15810,8 +16805,20 @@
       <c r="C84" s="75">
         <v>-6.2052161000000002E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="8">
+        <v>1109.9855</v>
+      </c>
+      <c r="E84" s="75">
+        <v>-6.3539572000000002E-2</v>
+      </c>
+      <c r="F84" s="8">
+        <v>1109.996883</v>
+      </c>
+      <c r="G84">
+        <v>-6.3939626999999999E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="74">
         <v>2.0798201999999999</v>
       </c>
@@ -15821,8 +16828,20 @@
       <c r="C85" s="75">
         <v>-5.3863108E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="8">
+        <v>1109.9899</v>
+      </c>
+      <c r="E85" s="75">
+        <v>-5.5185645999999998E-2</v>
+      </c>
+      <c r="F85" s="8">
+        <v>1110.001233</v>
+      </c>
+      <c r="G85">
+        <v>-5.5539981000000002E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="74">
         <v>1.6988591</v>
       </c>
@@ -15832,8 +16851,20 @@
       <c r="C86" s="75">
         <v>-4.6754262999999997E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="8">
+        <v>1109.9937</v>
+      </c>
+      <c r="E86" s="75">
+        <v>-4.7929513999999999E-2</v>
+      </c>
+      <c r="F86" s="8">
+        <v>1110.005011</v>
+      </c>
+      <c r="G86">
+        <v>-4.8243227999999999E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="74">
         <v>1.3876789</v>
       </c>
@@ -15843,8 +16874,20 @@
       <c r="C87" s="75">
         <v>-4.0583267999999999E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="8">
+        <v>1109.9967999999999</v>
+      </c>
+      <c r="E87" s="75">
+        <v>-4.1627052999999997E-2</v>
+      </c>
+      <c r="F87" s="8">
+        <v>1110.008292</v>
+      </c>
+      <c r="G87">
+        <v>-4.1904700000000003E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="74">
         <v>1.1334976000000001</v>
       </c>
@@ -15854,8 +16897,20 @@
       <c r="C88" s="75">
         <v>-3.5226489999999999E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="8">
+        <v>1109.9996000000001</v>
+      </c>
+      <c r="E88" s="75">
+        <v>-3.6153025999999998E-2</v>
+      </c>
+      <c r="F88" s="8">
+        <v>1110.011141</v>
+      </c>
+      <c r="G88">
+        <v>-3.6398659E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="74">
         <v>0.92587470999999999</v>
       </c>
@@ -15865,8 +16920,20 @@
       <c r="C89" s="75">
         <v>-3.0576564000000001E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="8">
+        <v>1110.0020999999999</v>
+      </c>
+      <c r="E89" s="75">
+        <v>-3.1398609000000001E-2</v>
+      </c>
+      <c r="F89" s="8">
+        <v>1110.0136150000001</v>
+      </c>
+      <c r="G89">
+        <v>-3.1615844999999997E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="74">
         <v>0.75628214999999999</v>
       </c>
@@ -15876,8 +16943,20 @@
       <c r="C90" s="75">
         <v>-2.6540278E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="8">
+        <v>1110.0043000000001</v>
+      </c>
+      <c r="E90" s="75">
+        <v>-2.7269261E-2</v>
+      </c>
+      <c r="F90" s="8">
+        <v>1110.015764</v>
+      </c>
+      <c r="G90">
+        <v>-2.7461319000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="74">
         <v>0.61775385999999999</v>
       </c>
@@ -15887,8 +16966,20 @@
       <c r="C91" s="75">
         <v>-2.3036685000000001E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="8">
+        <v>1110.0061000000001</v>
+      </c>
+      <c r="E91" s="75">
+        <v>-2.3682846E-2</v>
+      </c>
+      <c r="F91" s="8">
+        <v>1110.0176300000001</v>
+      </c>
+      <c r="G91">
+        <v>-2.3852590999999999E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="74">
         <v>0.50459980999999998</v>
       </c>
@@ -15898,8 +16989,20 @@
       <c r="C92" s="75">
         <v>-1.9995513999999999E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="8">
+        <v>1110.0077000000001</v>
+      </c>
+      <c r="E92" s="75">
+        <v>-2.0568011000000001E-2</v>
+      </c>
+      <c r="F92" s="8">
+        <v>1110.0192500000001</v>
+      </c>
+      <c r="G92">
+        <v>-2.0717988E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="74">
         <v>0.41217219999999999</v>
       </c>
@@ -15909,8 +17012,20 @@
       <c r="C93" s="75">
         <v>-1.7355756999999999E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="8">
+        <v>1110.0092</v>
+      </c>
+      <c r="E93" s="75">
+        <v>-1.7862774000000001E-2</v>
+      </c>
+      <c r="F93" s="8">
+        <v>1110.0206579999999</v>
+      </c>
+      <c r="G93">
+        <v>-1.7995245E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="74">
         <v>0.33667457000000001</v>
       </c>
@@ -15920,8 +17035,20 @@
       <c r="C94" s="75">
         <v>-1.5064444999999999E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="8">
+        <v>1110.0103999999999</v>
+      </c>
+      <c r="E94" s="75">
+        <v>-1.5513291E-2</v>
+      </c>
+      <c r="F94" s="8">
+        <v>1110.02188</v>
+      </c>
+      <c r="G94">
+        <v>-1.5630266E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="74">
         <v>0.27500585</v>
       </c>
@@ -15931,8 +17058,20 @@
       <c r="C95" s="75">
         <v>-1.3075598000000001E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="8">
+        <v>1110.0114000000001</v>
+      </c>
+      <c r="E95" s="75">
+        <v>-1.347279E-2</v>
+      </c>
+      <c r="F95" s="8">
+        <v>1110.0229420000001</v>
+      </c>
+      <c r="G95">
+        <v>-1.3576054000000001E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="74">
         <v>0.22463299</v>
       </c>
@@ -15942,8 +17081,20 @@
       <c r="C96" s="75">
         <v>-1.1349296E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="8">
+        <v>1110.0123000000001</v>
+      </c>
+      <c r="E96" s="75">
+        <v>-1.170065E-2</v>
+      </c>
+      <c r="F96" s="8">
+        <v>1110.023864</v>
+      </c>
+      <c r="G96">
+        <v>-1.1791785000000001E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="74">
         <v>0.18348693999999999</v>
       </c>
@@ -15953,8 +17104,20 @@
       <c r="C97" s="75">
         <v>-9.8508894E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="8">
+        <v>1110.0130999999999</v>
+      </c>
+      <c r="E97" s="75">
+        <v>-1.0161583E-2</v>
+      </c>
+      <c r="F97" s="8">
+        <v>1110.024664</v>
+      </c>
+      <c r="G97">
+        <v>-1.0241994000000001E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="74">
         <v>0.14987760999999999</v>
       </c>
@@ -15964,8 +17127,20 @@
       <c r="C98" s="75">
         <v>-8.5502983999999997E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="8">
+        <v>1110.0137999999999</v>
+      </c>
+      <c r="E98" s="75">
+        <v>-8.8249417E-3</v>
+      </c>
+      <c r="F98" s="8">
+        <v>1110.0253600000001</v>
+      </c>
+      <c r="G98">
+        <v>-8.8958720000000008E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="74">
         <v>0.12242451</v>
       </c>
@@ -15975,8 +17150,20 @@
       <c r="C99" s="75">
         <v>-7.4214110999999998E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D99" s="8">
+        <v>1110.0144</v>
+      </c>
+      <c r="E99" s="75">
+        <v>-7.6641073000000004E-3</v>
+      </c>
+      <c r="F99" s="8">
+        <v>1110.0259639999999</v>
+      </c>
+      <c r="G99">
+        <v>-7.7266599999999998E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="76">
         <v>0.1</v>
       </c>
@@ -15985,6 +17172,18 @@
       </c>
       <c r="C100" s="78">
         <v>-6.4415623999999998E-3</v>
+      </c>
+      <c r="D100" s="77">
+        <v>1110.0148999999999</v>
+      </c>
+      <c r="E100" s="78">
+        <v>-6.6559584999999998E-3</v>
+      </c>
+      <c r="F100" s="8">
+        <v>1110.0264890000001</v>
+      </c>
+      <c r="G100">
+        <v>-6.7111100000000002E-3</v>
       </c>
     </row>
   </sheetData>
@@ -15997,7 +17196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7AAAFD-7D85-48CA-BD33-8DA3CB104A26}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -17275,6 +18474,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CA77CB608DF77642B32363FEA1A8D6ED" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60da8da67832157b53ddd3885e82d365">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="789f3669-58e9-453a-aab3-9449a398dc0e" xmlns:ns4="8c01272d-a0a3-40dc-a393-2041f81f19c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be128519fc943fd0781e55ac20fffc24" ns3:_="" ns4:_="">
     <xsd:import namespace="789f3669-58e9-453a-aab3-9449a398dc0e"/>
@@ -17495,33 +18703,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5BE1806-0A7E-49F1-AE59-165ADD2270EC}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="8c01272d-a0a3-40dc-a393-2041f81f19c5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="789f3669-58e9-453a-aab3-9449a398dc0e"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="789f3669-58e9-453a-aab3-9449a398dc0e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEFA7D20-1F2A-453A-8860-FC9EE5A9A2BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0E9319B-ECDE-4132-B8DF-66C27172A638}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17538,12 +18745,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEFA7D20-1F2A-453A-8860-FC9EE5A9A2BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/python/experimental/compare EC and pyhton on abhi data unit and mod.xlsx
+++ b/python/experimental/compare EC and pyhton on abhi data unit and mod.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive - Indian Institute of Technology Bombay\3rd Semester\Fitting Inhomogenous Project\Code\python\experimental\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iitbacin-my.sharepoint.com/personal/22d1412_iitb_ac_in/Documents/3rd Semester/Fitting Inhomogenous Project/Code/python/experimental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1229E8-53CE-417E-930A-DDB1592C92B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{A8A5D645-7DFA-4784-84B3-B9E49DBD7A55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4A2B9302-BA7B-4A74-92D5-397EBF3DEDEB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6660" tabRatio="373" activeTab="2" xr2:uid="{356321C6-8911-4290-981D-E214E04D53E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="abhi analysis" sheetId="1" r:id="rId1"/>
-    <sheet name="circle analysis" sheetId="3" r:id="rId2"/>
-    <sheet name="circle data" sheetId="2" r:id="rId3"/>
-    <sheet name="abhi data" sheetId="4" r:id="rId4"/>
+    <sheet name="Abhi analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="Circle analysis" sheetId="3" r:id="rId2"/>
+    <sheet name="Circle Data" sheetId="2" r:id="rId3"/>
+    <sheet name="fitted data abhi" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2203,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100511BF-D9F9-4290-97ED-168AB0FBB827}">
   <dimension ref="C2:AM93"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9:AK82"/>
+    <sheetView topLeftCell="J16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6708,7 +6708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED35FB77-89A5-4E66-86DE-B4C5A3BCC7D9}">
   <dimension ref="A1:AV255"/>
   <sheetViews>
-    <sheetView topLeftCell="O83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="O62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AP27" sqref="AP27:AR126"/>
     </sheetView>
   </sheetViews>
@@ -14878,7 +14878,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K82" sqref="K82"/>
+      <selection activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14902,11 +14902,11 @@
       <c r="E1" s="75">
         <v>-1.0216384000000001</v>
       </c>
-      <c r="F1" s="8">
-        <v>1010.121138</v>
+      <c r="F1">
+        <v>1010.1211380867981</v>
       </c>
       <c r="G1">
-        <v>-1.0250821569999999</v>
+        <v>-1.025082156617682</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -14925,11 +14925,11 @@
       <c r="E2" s="75">
         <v>-1.1744781</v>
       </c>
-      <c r="F2" s="8">
-        <v>1010.2045879999999</v>
+      <c r="F2">
+        <v>1010.204587587011</v>
       </c>
       <c r="G2">
-        <v>-1.1782830310000001</v>
+        <v>-1.1782830308079959</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -14948,11 +14948,11 @@
       <c r="E3" s="75">
         <v>-1.3498441000000001</v>
       </c>
-      <c r="F3" s="8">
-        <v>1010.30108</v>
+      <c r="F3">
+        <v>1010.301080213957</v>
       </c>
       <c r="G3">
-        <v>-1.354038995</v>
+        <v>-1.354038994568874</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -14971,11 +14971,11 @@
       <c r="E4" s="75">
         <v>-1.5509440999999999</v>
       </c>
-      <c r="F4" s="8">
-        <v>1010.412719</v>
+      <c r="F4">
+        <v>1010.412718577435</v>
       </c>
       <c r="G4">
-        <v>-1.5555576799999999</v>
+        <v>-1.555557679585245</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -14994,11 +14994,11 @@
       <c r="E5" s="75">
         <v>-1.7814049999999999</v>
       </c>
-      <c r="F5" s="8">
-        <v>1010.541962</v>
+      <c r="F5">
+        <v>1010.541962410239</v>
       </c>
       <c r="G5">
-        <v>-1.7864652329999999</v>
+        <v>-1.7864652328640791</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -15017,11 +15017,11 @@
       <c r="E6" s="75">
         <v>-2.0453142999999998</v>
       </c>
-      <c r="F6" s="8">
-        <v>1010.691694</v>
+      <c r="F6">
+        <v>1010.691693521894</v>
       </c>
       <c r="G6">
-        <v>-2.050847557</v>
+        <v>-2.0508475574122871</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -15040,11 +15040,11 @@
       <c r="E7" s="75">
         <v>-2.3472613999999998</v>
       </c>
-      <c r="F7" s="8">
-        <v>1010.865293</v>
+      <c r="F7">
+        <v>1010.865293280498</v>
       </c>
       <c r="G7">
-        <v>-2.3532905959999999</v>
+        <v>-2.353290595986651</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -15063,11 +15063,11 @@
       <c r="E8" s="75">
         <v>-2.6923745000000001</v>
       </c>
-      <c r="F8" s="8">
-        <v>1011.066735</v>
+      <c r="F8">
+        <v>1011.0667354243139</v>
       </c>
       <c r="G8">
-        <v>-2.6989179839999999</v>
+        <v>-2.6989179842025872</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -15086,11 +15086,11 @@
       <c r="E9" s="75">
         <v>-3.0863518999999999</v>
       </c>
-      <c r="F9" s="8">
-        <v>1011.300696</v>
+      <c r="F9">
+        <v>1011.300695947354</v>
       </c>
       <c r="G9">
-        <v>-3.0934209570000002</v>
+        <v>-3.0934209567909612</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -15109,11 +15109,11 @@
       <c r="E10" s="75">
         <v>-3.5354814999999999</v>
       </c>
-      <c r="F10" s="8">
-        <v>1011.572684</v>
+      <c r="F10">
+        <v>1011.572684431198</v>
       </c>
       <c r="G10">
-        <v>-3.5430781109999998</v>
+        <v>-3.5430781109645682</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -15132,11 +15132,11 @@
       <c r="E11" s="75">
         <v>-4.0466413000000001</v>
       </c>
-      <c r="F11" s="8">
-        <v>1011.889198</v>
+      <c r="F11">
+        <v>1011.889197743886</v>
       </c>
       <c r="G11">
-        <v>-4.0547547450000003</v>
+        <v>-4.0547547450039776</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -15155,11 +15155,11 @@
       <c r="E12" s="75">
         <v>-4.6272739999999999</v>
       </c>
-      <c r="F12" s="8">
-        <v>1012.2579009999999</v>
+      <c r="F12">
+        <v>1012.257900992691</v>
       </c>
       <c r="G12">
-        <v>-4.63587623</v>
+        <v>-4.6358762303453416</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -15178,11 +15178,11 @@
       <c r="E13" s="75">
         <v>-5.2853174000000003</v>
       </c>
-      <c r="F13" s="8">
-        <v>1012.6878359999999</v>
+      <c r="F13">
+        <v>1012.687835574772</v>
       </c>
       <c r="G13">
-        <v>-5.2943597440000003</v>
+        <v>-5.2943597443785446</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -15201,11 +15201,11 @@
       <c r="E14" s="75">
         <v>-6.0290870999999999</v>
       </c>
-      <c r="F14" s="8">
-        <v>1013.189658</v>
+      <c r="F14">
+        <v>1013.189657566983</v>
       </c>
       <c r="G14">
-        <v>-6.038493109</v>
+        <v>-6.0384931089215552</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -15224,11 +15224,11 @@
       <c r="E15" s="75">
         <v>-6.8670726000000002</v>
       </c>
-      <c r="F15" s="8">
-        <v>1013.775899</v>
+      <c r="F15">
+        <v>1013.775898778168</v>
       </c>
       <c r="G15">
-        <v>-6.8767329129999997</v>
+        <v>-6.8767329132944921</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -15247,11 +15247,11 @@
       <c r="E16" s="75">
         <v>-7.8076391000000003</v>
       </c>
-      <c r="F16" s="8">
-        <v>1014.461247</v>
+      <c r="F16">
+        <v>1014.461247309034</v>
       </c>
       <c r="G16">
-        <v>-7.8174043519999996</v>
+        <v>-7.8174043519433134</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -15270,11 +15270,11 @@
       <c r="E17" s="75">
         <v>-8.8585978000000001</v>
       </c>
-      <c r="F17" s="8">
-        <v>1015.262831</v>
+      <c r="F17">
+        <v>1015.262830707791</v>
       </c>
       <c r="G17">
-        <v>-8.8682711370000007</v>
+        <v>-8.8682711374039087</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -15293,11 +15293,11 @@
       <c r="E18" s="75">
         <v>-10.026603</v>
       </c>
-      <c r="F18" s="8">
-        <v>1016.200468</v>
+      <c r="F18">
+        <v>1016.200468327416</v>
       </c>
       <c r="G18">
-        <v>-10.03593515</v>
+        <v>-10.03593515328366</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -15316,11 +15316,11 @@
       <c r="E19" s="75">
         <v>-11.316363000000001</v>
       </c>
-      <c r="F19" s="8">
-        <v>1017.296857</v>
+      <c r="F19">
+        <v>1017.296857021616</v>
       </c>
       <c r="G19">
-        <v>-11.325044460000001</v>
+        <v>-11.325044456326699</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -15339,11 +15339,11 @@
       <c r="E20" s="75">
         <v>-12.729611999999999</v>
       </c>
-      <c r="F20" s="8">
-        <v>1018.577615</v>
+      <c r="F20">
+        <v>1018.57761501459</v>
       </c>
       <c r="G20">
-        <v>-12.73727072</v>
+        <v>-12.73727072244572</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -15362,11 +15362,11 @@
       <c r="E21" s="75">
         <v>-14.26385</v>
       </c>
-      <c r="F21" s="8">
-        <v>1020.071099</v>
+      <c r="F21">
+        <v>1020.071099005719</v>
       </c>
       <c r="G21">
-        <v>-14.270054760000001</v>
+        <v>-14.270054761714521</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -15385,11 +15385,11 @@
       <c r="E22" s="75">
         <v>-15.910854</v>
       </c>
-      <c r="F22" s="8">
-        <v>1021.807856</v>
+      <c r="F22">
+        <v>1021.807855820727</v>
       </c>
       <c r="G22">
-        <v>-15.91512225</v>
+        <v>-15.91512224570473</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -15408,11 +15408,11 @@
       <c r="E23" s="75">
         <v>-17.655054</v>
       </c>
-      <c r="F23" s="8">
-        <v>1023.819588</v>
+      <c r="F23">
+        <v>1023.819588416411</v>
       </c>
       <c r="G23">
-        <v>-17.65687011</v>
+        <v>-17.65687011455999</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -15431,11 +15431,11 @@
       <c r="E24" s="75">
         <v>-19.471900999999999</v>
       </c>
-      <c r="F24" s="8">
-        <v>1026.1374579999999</v>
+      <c r="F24">
+        <v>1026.1374582432479</v>
       </c>
       <c r="G24">
-        <v>-19.47074769</v>
+        <v>-19.47074768843769</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -15454,11 +15454,11 @@
       <c r="E25" s="75">
         <v>-21.326502000000001</v>
       </c>
-      <c r="F25" s="8">
-        <v>1028.789626</v>
+      <c r="F25">
+        <v>1028.7896255402229</v>
       </c>
       <c r="G25">
-        <v>-21.32190782</v>
+        <v>-21.321907815912091</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -15477,11 +15477,11 @@
       <c r="E26" s="75">
         <v>-23.172884</v>
       </c>
-      <c r="F26" s="8">
-        <v>1031.797982</v>
+      <c r="F26">
+        <v>1031.7979817562471</v>
       </c>
       <c r="G26">
-        <v>-23.164477300000001</v>
+        <v>-23.164477304029969</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -15500,11 +15500,11 @@
       <c r="E27" s="75">
         <v>-24.954317</v>
       </c>
-      <c r="F27" s="8">
-        <v>1035.174217</v>
+      <c r="F27">
+        <v>1035.174217101272</v>
       </c>
       <c r="G27">
-        <v>-24.94190077</v>
+        <v>-24.941900774050691</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -15523,11 +15523,11 @@
       <c r="E28" s="75">
         <v>-26.605198000000001</v>
       </c>
-      <c r="F28" s="8">
-        <v>1038.9156029999999</v>
+      <c r="F28">
+        <v>1038.9156034687251</v>
       </c>
       <c r="G28">
-        <v>-26.588809829999999</v>
+        <v>-26.588809834779219</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -15546,11 +15546,11 @@
       <c r="E29" s="75">
         <v>-28.054753999999999</v>
       </c>
-      <c r="F29" s="8">
-        <v>1043.001152</v>
+      <c r="F29">
+        <v>1043.0011516065979</v>
       </c>
       <c r="G29">
-        <v>-28.034731149999999</v>
+        <v>-28.03473114831295</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -15569,11 +15569,11 @@
       <c r="E30" s="75">
         <v>-29.23263</v>
       </c>
-      <c r="F30" s="8">
-        <v>1047.3890180000001</v>
+      <c r="F30">
+        <v>1047.389017612456</v>
       </c>
       <c r="G30">
-        <v>-29.209623919999999</v>
+        <v>-29.209623924531151</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -15592,11 +15592,11 @@
       <c r="E31" s="75">
         <v>-30.075800000000001</v>
       </c>
-      <c r="F31" s="8">
-        <v>1052.016116</v>
+      <c r="F31">
+        <v>1052.0161156113579</v>
       </c>
       <c r="G31">
-        <v>-30.050767629999999</v>
+        <v>-30.050767629536921</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -15615,11 +15615,11 @@
       <c r="E32" s="75">
         <v>-30.535847</v>
       </c>
-      <c r="F32" s="8">
-        <v>1056.8006029999999</v>
+      <c r="F32">
+        <v>1056.800603472454</v>
       </c>
       <c r="G32">
-        <v>-30.509977150000001</v>
+        <v>-30.509977151909471</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -15638,11 +15638,11 @@
       <c r="E33" s="75">
         <v>-30.585173000000001</v>
       </c>
-      <c r="F33" s="8">
-        <v>1061.6473559999999</v>
+      <c r="F33">
+        <v>1061.647356004964</v>
       </c>
       <c r="G33">
-        <v>-30.5597703</v>
+        <v>-30.559770298181149</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -15661,11 +15661,11 @@
       <c r="E34" s="75">
         <v>-30.220766000000001</v>
       </c>
-      <c r="F34" s="8">
-        <v>1066.4557930000001</v>
+      <c r="F34">
+        <v>1066.4557929620739</v>
       </c>
       <c r="G34">
-        <v>-30.19711689</v>
+        <v>-30.19711689342396</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -15684,11 +15684,11 @@
       <c r="E35" s="75">
         <v>-29.46463</v>
       </c>
-      <c r="F35" s="8">
-        <v>1071.128704</v>
+      <c r="F35">
+        <v>1071.1287039347669</v>
       </c>
       <c r="G35">
-        <v>-29.443861829999999</v>
+        <v>-29.443861826226051</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -15707,11 +15707,11 @@
       <c r="E36" s="75">
         <v>-28.360745999999999</v>
       </c>
-      <c r="F36" s="8">
-        <v>1075.580459</v>
+      <c r="F36">
+        <v>1075.580459202228</v>
       </c>
       <c r="G36">
-        <v>-28.343717160000001</v>
+        <v>-28.343717155484359</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -15730,11 +15730,11 @@
       <c r="E37" s="75">
         <v>-26.969315999999999</v>
       </c>
-      <c r="F37" s="8">
-        <v>1079.7431320000001</v>
+      <c r="F37">
+        <v>1079.7431316953259</v>
       </c>
       <c r="G37">
-        <v>-26.956560270000001</v>
+        <v>-26.956560265080611</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -15753,11 +15753,11 @@
       <c r="E38" s="75">
         <v>-25.359627</v>
       </c>
-      <c r="F38" s="8">
-        <v>1083.56972</v>
+      <c r="F38">
+        <v>1083.569719911811</v>
       </c>
       <c r="G38">
-        <v>-25.351336459999999</v>
+        <v>-25.35133646304525</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -15776,11 +15776,11 @@
       <c r="E39" s="75">
         <v>-23.602910999999999</v>
       </c>
-      <c r="F39" s="8">
-        <v>1087.0344</v>
+      <c r="F39">
+        <v>1087.0343995784019</v>
       </c>
       <c r="G39">
-        <v>-23.598983919999998</v>
+        <v>-23.598983918221592</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -15799,11 +15799,11 @@
       <c r="E40" s="75">
         <v>-21.766408999999999</v>
       </c>
-      <c r="F40" s="8">
-        <v>1090.1303809999999</v>
+      <c r="F40">
+        <v>1090.130381102693</v>
       </c>
       <c r="G40">
-        <v>-21.76650639</v>
+        <v>-21.766506386829729</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -15822,11 +15822,11 @@
       <c r="E41" s="75">
         <v>-19.909184</v>
       </c>
-      <c r="F41" s="8">
-        <v>1092.866284</v>
+      <c r="F41">
+        <v>1092.8662836818251</v>
       </c>
       <c r="G41">
-        <v>-19.912806960000001</v>
+        <v>-19.912806964541019</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -15845,11 +15845,11 @@
       <c r="E42" s="75">
         <v>-18.079837999999999</v>
       </c>
-      <c r="F42" s="8">
-        <v>1095.261929</v>
+      <c r="F42">
+        <v>1095.2619290615339</v>
       </c>
       <c r="G42">
-        <v>-18.08640265</v>
+        <v>-18.086402654758569</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -15868,11 +15868,11 @@
       <c r="E43" s="75">
         <v>-16.315850999999999</v>
       </c>
-      <c r="F43" s="8">
-        <v>1097.3442990000001</v>
+      <c r="F43">
+        <v>1097.344299364534</v>
       </c>
       <c r="G43">
-        <v>-16.324752119999999</v>
+        <v>-16.324752116613979</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -15891,11 +15891,11 @@
       <c r="E44" s="75">
         <v>-14.644114</v>
       </c>
-      <c r="F44" s="8">
-        <v>1099.144094</v>
+      <c r="F44">
+        <v>1099.144094173206</v>
       </c>
       <c r="G44">
-        <v>-14.65476634</v>
+        <v>-14.6547663438299</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -15914,11 +15914,11 @@
       <c r="E45" s="75">
         <v>-13.082186</v>
       </c>
-      <c r="F45" s="8">
-        <v>1100.6930649999999</v>
+      <c r="F45">
+        <v>1100.6930651055229</v>
       </c>
       <c r="G45">
-        <v>-13.09405486</v>
+        <v>-13.09405486362974</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -15937,11 +15937,11 @@
       <c r="E46" s="75">
         <v>-11.639873</v>
       </c>
-      <c r="F46" s="8">
-        <v>1102.0221570000001</v>
+      <c r="F46">
+        <v>1102.0221571035261</v>
       </c>
       <c r="G46">
-        <v>-11.65249478</v>
+        <v>-11.652494777962151</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -15960,11 +15960,11 @@
       <c r="E47" s="75">
         <v>-10.320891</v>
       </c>
-      <c r="F47" s="8">
-        <v>1103.1603150000001</v>
+      <c r="F47">
+        <v>1103.1603148111849</v>
       </c>
       <c r="G47">
-        <v>-10.333877080000001</v>
+        <v>-10.33387707505875</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -15983,11 +15983,11 @@
       <c r="E48" s="75">
         <v>-9.1243887000000008</v>
       </c>
-      <c r="F48" s="8">
-        <v>1104.133842</v>
+      <c r="F48">
+        <v>1104.133841550007</v>
       </c>
       <c r="G48">
-        <v>-9.1374208800000005</v>
+        <v>-9.1374208801875554</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -16006,11 +16006,11 @@
       <c r="E49" s="75">
         <v>-8.0462570000000007</v>
       </c>
-      <c r="F49" s="8">
-        <v>1104.966138</v>
+      <c r="F49">
+        <v>1104.9661384329261</v>
       </c>
       <c r="G49">
-        <v>-8.0590888760000006</v>
+        <v>-8.0590888758464736</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -16029,11 +16029,11 @@
       <c r="E50" s="75">
         <v>-7.0802240000000003</v>
       </c>
-      <c r="F50" s="8">
-        <v>1105.677702</v>
+      <c r="F50">
+        <v>1105.677702090401</v>
       </c>
       <c r="G50">
-        <v>-7.0926669760000003</v>
+        <v>-7.0926669760876662</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -16052,11 +16052,11 @@
       <c r="E51" s="75">
         <v>-6.2186909000000004</v>
       </c>
-      <c r="F51" s="8">
-        <v>1106.2862829999999</v>
+      <c r="F51">
+        <v>1106.286283438568</v>
       </c>
       <c r="G51">
-        <v>-6.2306097139999999</v>
+        <v>-6.230609713866083</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -16075,11 +16075,11 @@
       <c r="E52" s="75">
         <v>-5.4533795999999999</v>
       </c>
-      <c r="F52" s="8">
-        <v>1106.807131</v>
+      <c r="F52">
+        <v>1106.807130579311</v>
       </c>
       <c r="G52">
-        <v>-5.4646811780000002</v>
+        <v>-5.4646811779096423</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -16098,11 +16098,11 @@
       <c r="E53" s="75">
         <v>-4.7757974000000001</v>
       </c>
-      <c r="F53" s="8">
-        <v>1107.2532670000001</v>
+      <c r="F53">
+        <v>1107.2532667643529</v>
       </c>
       <c r="G53">
-        <v>-4.7864240090000001</v>
+        <v>-4.7864240088849979</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -16121,11 +16121,11 @@
       <c r="E54" s="75">
         <v>-4.1775679999999999</v>
       </c>
-      <c r="F54" s="8">
-        <v>1107.635773</v>
+      <c r="F54">
+        <v>1107.635772622225</v>
       </c>
       <c r="G54">
-        <v>-4.1874890950000001</v>
+        <v>-4.1874890954657262</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -16144,11 +16144,11 @@
       <c r="E55" s="75">
         <v>-3.6506498000000001</v>
       </c>
-      <c r="F55" s="8">
-        <v>1107.964054</v>
+      <c r="F55">
+        <v>1107.9640543957471</v>
       </c>
       <c r="G55">
-        <v>-3.6598562019999998</v>
+        <v>-3.6598562024067851</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -16167,11 +16167,11 @@
       <c r="E56" s="75">
         <v>-3.1874747000000001</v>
       </c>
-      <c r="F56" s="8">
-        <v>1108.246087</v>
+      <c r="F56">
+        <v>1108.2460870926161</v>
       </c>
       <c r="G56">
-        <v>-3.195974133</v>
+        <v>-3.1959741331145501</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -16190,11 +16190,11 @@
       <c r="E57" s="75">
         <v>-2.7810277999999999</v>
       </c>
-      <c r="F57" s="8">
-        <v>1108.4886300000001</v>
+      <c r="F57">
+        <v>1108.4886302506529</v>
       </c>
       <c r="G57">
-        <v>-2.7888394870000002</v>
+        <v>-2.7888394865179311</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -16213,11 +16213,11 @@
       <c r="E58" s="75">
         <v>-2.4248802999999999</v>
       </c>
-      <c r="F58" s="8">
-        <v>1108.6974150000001</v>
+      <c r="F58">
+        <v>1108.6974151448769</v>
       </c>
       <c r="G58">
-        <v>-2.432032221</v>
+        <v>-2.432032220521088</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -16236,11 +16236,11 @@
       <c r="E59" s="75">
         <v>-2.1131959</v>
       </c>
-      <c r="F59" s="8">
-        <v>1108.877305</v>
+      <c r="F59">
+        <v>1108.8773048970791</v>
       </c>
       <c r="G59">
-        <v>-2.1197214180000001</v>
+        <v>-2.1197214180412769</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -16259,11 +16259,11 @@
       <c r="E60" s="75">
         <v>-1.8407134000000001</v>
       </c>
-      <c r="F60" s="8">
-        <v>1109.0324310000001</v>
+      <c r="F60">
+        <v>1109.032430894594</v>
       </c>
       <c r="G60">
-        <v>-1.8466497369999999</v>
+        <v>-1.846649737063822</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -16282,11 +16282,11 @@
       <c r="E61" s="75">
         <v>-1.6027191999999999</v>
       </c>
-      <c r="F61" s="8">
-        <v>1109.1663080000001</v>
+      <c r="F61">
+        <v>1109.166307581791</v>
       </c>
       <c r="G61">
-        <v>-1.6081053569999999</v>
+        <v>-1.608105357302932</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -16305,11 +16305,11 @@
       <c r="E62" s="75">
         <v>-1.3950108000000001</v>
       </c>
-      <c r="F62" s="8">
-        <v>1109.281929</v>
+      <c r="F62">
+        <v>1109.281928881996</v>
       </c>
       <c r="G62">
-        <v>-1.3998862329999999</v>
+        <v>-1.399886232726657</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -16328,11 +16328,11 @@
       <c r="E63" s="75">
         <v>-1.213856</v>
       </c>
-      <c r="F63" s="8">
-        <v>1109.3818490000001</v>
+      <c r="F63">
+        <v>1109.381849353309</v>
       </c>
       <c r="G63">
-        <v>-1.2182597829999999</v>
+        <v>-1.2182597834671991</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -16351,11 +16351,11 @@
       <c r="E64" s="75">
         <v>-1.0559512</v>
       </c>
-      <c r="F64" s="8">
-        <v>1109.4682519999999</v>
+      <c r="F64">
+        <v>1109.468251978137</v>
       </c>
       <c r="G64">
-        <v>-1.0599216490000001</v>
+        <v>-1.0599216485445371</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -16374,11 +16374,11 @@
       <c r="E65" s="75">
         <v>-0.91838109000000001</v>
       </c>
-      <c r="F65" s="8">
-        <v>1109.543005</v>
+      <c r="F65">
+        <v>1109.54300503537</v>
       </c>
       <c r="G65">
-        <v>-0.92195473100000003</v>
+        <v>-0.92195473083899737</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -16397,11 +16397,11 @@
       <c r="E66" s="75">
         <v>-0.79857844</v>
       </c>
-      <c r="F66" s="8">
-        <v>1109.60771</v>
+      <c r="F66">
+        <v>1109.6077097149191</v>
       </c>
       <c r="G66">
-        <v>-0.80178999200000001</v>
+        <v>-0.80178999221130021</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -16420,11 +16420,11 @@
       <c r="E67" s="75">
         <v>-0.69428718</v>
       </c>
-      <c r="F67" s="8">
-        <v>1109.66374</v>
+      <c r="F67">
+        <v>1109.6637402621241</v>
       </c>
       <c r="G67">
-        <v>-0.69716924800000002</v>
+        <v>-0.69716924802235236</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -16443,11 +16443,11 @@
       <c r="E68" s="75">
         <v>-0.60352790000000001</v>
       </c>
-      <c r="F68" s="8">
-        <v>1109.712278</v>
+      <c r="F68">
+        <v>1109.712277552361</v>
       </c>
       <c r="G68">
-        <v>-0.606111065</v>
+        <v>-0.60611106460743414</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -16466,11 +16466,11 @@
       <c r="E69" s="75">
         <v>-0.52456670999999999</v>
       </c>
-      <c r="F69" s="8">
-        <v>1109.754338</v>
+      <c r="F69">
+        <v>1109.7543375314699</v>
       </c>
       <c r="G69">
-        <v>-0.52687924799999997</v>
+        <v>-0.52687924779849016</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -16489,11 +16489,11 @@
       <c r="E70" s="75">
         <v>-0.45588635999999999</v>
       </c>
-      <c r="F70" s="8">
-        <v>1109.7907949999999</v>
+      <c r="F70">
+        <v>1109.7907951574959</v>
       </c>
       <c r="G70">
-        <v>-0.45795440100000001</v>
+        <v>-0.45795440128557208</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -16512,11 +16512,11 @@
       <c r="E71" s="75">
         <v>-0.39616056999999999</v>
       </c>
-      <c r="F71" s="8">
-        <v>1109.8224049999999</v>
+      <c r="F71">
+        <v>1109.8224047471069</v>
       </c>
       <c r="G71">
-        <v>-0.39800814899999998</v>
+        <v>-0.39800814850729871</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -16535,11 +16535,11 @@
       <c r="E72" s="75">
         <v>-0.34423115999999998</v>
       </c>
-      <c r="F72" s="8">
-        <v>1109.849817</v>
+      <c r="F72">
+        <v>1109.849817115819</v>
       </c>
       <c r="G72">
-        <v>-0.34588027700000001</v>
+        <v>-0.3458802769794751</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -16558,11 +16558,11 @@
       <c r="E73" s="75">
         <v>-0.29908741</v>
       </c>
-      <c r="F73" s="8">
-        <v>1109.8735939999999</v>
+      <c r="F73">
+        <v>1109.87359426496</v>
       </c>
       <c r="G73">
-        <v>-0.30055814199999997</v>
+        <v>-0.30055814212986087</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -16581,11 +16581,11 @@
       <c r="E74" s="75">
         <v>-0.25984791000000002</v>
       </c>
-      <c r="F74" s="8">
-        <v>1109.8942219999999</v>
+      <c r="F74">
+        <v>1109.894221832107</v>
       </c>
       <c r="G74">
-        <v>-0.26115850099999999</v>
+        <v>-0.26115850059537021</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -16604,11 +16604,11 @@
       <c r="E75" s="75">
         <v>-0.22574443</v>
       </c>
-      <c r="F75" s="8">
-        <v>1109.91212</v>
+      <c r="F75">
+        <v>1109.9121197039849</v>
       </c>
       <c r="G75">
-        <v>-0.22691146000000001</v>
+        <v>-0.22691146040803209</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -16627,11 +16627,11 @@
       <c r="E76" s="75">
         <v>-0.19610769</v>
       </c>
-      <c r="F76" s="8">
-        <v>1109.927651</v>
+      <c r="F76">
+        <v>1109.9276511647049</v>
       </c>
       <c r="G76">
-        <v>-0.19714617600000001</v>
+        <v>-0.19714617551090011</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -16650,11 +16650,11 @@
       <c r="E77" s="75">
         <v>-0.1703549</v>
       </c>
-      <c r="F77" s="8">
-        <v>1109.941131</v>
+      <c r="F77">
+        <v>1109.9411306436739</v>
       </c>
       <c r="G77">
-        <v>-0.17127841999999999</v>
+        <v>-0.17127842027053039</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -16673,11 +16673,11 @@
       <c r="E78" s="75">
         <v>-0.14797877000000001</v>
       </c>
-      <c r="F78" s="8">
-        <v>1109.9528299999999</v>
+      <c r="F78">
+        <v>1109.952830425098</v>
       </c>
       <c r="G78">
-        <v>-0.148799548</v>
+        <v>-0.14879954820798069</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -16696,11 +16696,11 @@
       <c r="E79" s="75">
         <v>-0.12853782999999999</v>
       </c>
-      <c r="F79" s="8">
-        <v>1109.962986</v>
+      <c r="F79">
+        <v>1109.962986373007</v>
       </c>
       <c r="G79">
-        <v>-0.129266881</v>
+        <v>-0.12926688051579011</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -16719,11 +16719,11 @@
       <c r="E80" s="75">
         <v>-0.11164804</v>
       </c>
-      <c r="F80" s="8">
-        <v>1109.9718029999999</v>
+      <c r="F80">
+        <v>1109.9718028731979</v>
       </c>
       <c r="G80">
-        <v>-0.112295251</v>
+        <v>-0.112295251336845</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -16742,11 +16742,11 @@
       <c r="E81" s="75">
         <v>-9.6975327E-2</v>
       </c>
-      <c r="F81" s="8">
-        <v>1109.9794569999999</v>
+      <c r="F81">
+        <v>1109.9794570922959</v>
       </c>
       <c r="G81">
-        <v>-9.7549602999999999E-2</v>
+        <v>-9.754960299660935E-2</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -16765,11 +16765,11 @@
       <c r="E82" s="75">
         <v>-8.4229215999999996E-2</v>
       </c>
-      <c r="F82" s="8">
-        <v>1109.986103</v>
+      <c r="F82">
+        <v>1109.986102640232</v>
       </c>
       <c r="G82">
-        <v>-8.4738530000000006E-2</v>
+        <v>-8.4738530393027464E-2</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -16788,11 +16788,11 @@
       <c r="E83" s="75">
         <v>-7.3157154000000002E-2</v>
       </c>
-      <c r="F83" s="8">
-        <v>1109.9918729999999</v>
+      <c r="F83">
+        <v>1109.9918727323491</v>
       </c>
       <c r="G83">
-        <v>-7.3608639000000003E-2</v>
+        <v>-7.3608638658804598E-2</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -16811,11 +16811,11 @@
       <c r="E84" s="75">
         <v>-6.3539572000000002E-2</v>
       </c>
-      <c r="F84" s="8">
-        <v>1109.996883</v>
+      <c r="F84">
+        <v>1109.996882915643</v>
       </c>
       <c r="G84">
-        <v>-6.3939626999999999E-2</v>
+        <v>-6.3939627132419782E-2</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -16834,11 +16834,11 @@
       <c r="E85" s="75">
         <v>-5.5185645999999998E-2</v>
       </c>
-      <c r="F85" s="8">
-        <v>1110.001233</v>
+      <c r="F85">
+        <v>1110.00123343531</v>
       </c>
       <c r="G85">
-        <v>-5.5539981000000002E-2</v>
+        <v>-5.5539981032884198E-2</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -16857,11 +16857,11 @@
       <c r="E86" s="75">
         <v>-4.7929513999999999E-2</v>
       </c>
-      <c r="F86" s="8">
-        <v>1110.005011</v>
+      <c r="F86">
+        <v>1110.0050112747711</v>
       </c>
       <c r="G86">
-        <v>-4.8243227999999999E-2</v>
+        <v>-4.8243228179629082E-2</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -16880,11 +16880,11 @@
       <c r="E87" s="75">
         <v>-4.1627052999999997E-2</v>
       </c>
-      <c r="F87" s="8">
-        <v>1110.008292</v>
+      <c r="F87">
+        <v>1110.0082919088691</v>
       </c>
       <c r="G87">
-        <v>-4.1904700000000003E-2</v>
+        <v>-4.1904700341642689E-2</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -16903,11 +16903,11 @@
       <c r="E88" s="75">
         <v>-3.6153025999999998E-2</v>
       </c>
-      <c r="F88" s="8">
-        <v>1110.011141</v>
+      <c r="F88">
+        <v>1110.011140849032</v>
       </c>
       <c r="G88">
-        <v>-3.6398659E-2</v>
+        <v>-3.6398659277730193E-2</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -16926,11 +16926,11 @@
       <c r="E89" s="75">
         <v>-3.1398609000000001E-2</v>
       </c>
-      <c r="F89" s="8">
-        <v>1110.0136150000001</v>
+      <c r="F89">
+        <v>1110.01361495535</v>
       </c>
       <c r="G89">
-        <v>-3.1615844999999997E-2</v>
+        <v>-3.1615845047769153E-2</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -16949,11 +16949,11 @@
       <c r="E90" s="75">
         <v>-2.7269261E-2</v>
       </c>
-      <c r="F90" s="8">
-        <v>1110.015764</v>
+      <c r="F90">
+        <v>1110.015763585056</v>
       </c>
       <c r="G90">
-        <v>-2.7461319000000001E-2</v>
+        <v>-2.7461319324936971E-2</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -16972,11 +16972,11 @@
       <c r="E91" s="75">
         <v>-2.3682846E-2</v>
       </c>
-      <c r="F91" s="8">
-        <v>1110.0176300000001</v>
+      <c r="F91">
+        <v>1110.017629586978</v>
       </c>
       <c r="G91">
-        <v>-2.3852590999999999E-2</v>
+        <v>-2.3852590510364109E-2</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -16995,11 +16995,11 @@
       <c r="E92" s="75">
         <v>-2.0568011000000001E-2</v>
       </c>
-      <c r="F92" s="8">
-        <v>1110.0192500000001</v>
+      <c r="F92">
+        <v>1110.0192501606971</v>
       </c>
       <c r="G92">
-        <v>-2.0717988E-2</v>
+        <v>-2.0717988331782199E-2</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -17018,11 +17018,11 @@
       <c r="E93" s="75">
         <v>-1.7862774000000001E-2</v>
       </c>
-      <c r="F93" s="8">
-        <v>1110.0206579999999</v>
+      <c r="F93">
+        <v>1110.0206576040091</v>
       </c>
       <c r="G93">
-        <v>-1.7995245E-2</v>
+        <v>-1.7995245385423221E-2</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -17041,11 +17041,11 @@
       <c r="E94" s="75">
         <v>-1.5513291E-2</v>
       </c>
-      <c r="F94" s="8">
-        <v>1110.02188</v>
+      <c r="F94">
+        <v>1110.0218799600359</v>
       </c>
       <c r="G94">
-        <v>-1.5630266E-2</v>
+        <v>-1.5630265867976081E-2</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -17064,11 +17064,11 @@
       <c r="E95" s="75">
         <v>-1.347279E-2</v>
       </c>
-      <c r="F95" s="8">
-        <v>1110.0229420000001</v>
+      <c r="F95">
+        <v>1110.0229415789329</v>
       </c>
       <c r="G95">
-        <v>-1.3576054000000001E-2</v>
+        <v>-1.3576054371895111E-2</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -17087,11 +17087,11 @@
       <c r="E96" s="75">
         <v>-1.170065E-2</v>
       </c>
-      <c r="F96" s="8">
-        <v>1110.023864</v>
+      <c r="F96">
+        <v>1110.023863604961</v>
       </c>
       <c r="G96">
-        <v>-1.1791785000000001E-2</v>
+        <v>-1.179178512038368E-2</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -17110,11 +17110,11 @@
       <c r="E97" s="75">
         <v>-1.0161583E-2</v>
       </c>
-      <c r="F97" s="8">
-        <v>1110.024664</v>
+      <c r="F97">
+        <v>1110.024664398718</v>
       </c>
       <c r="G97">
-        <v>-1.0241994000000001E-2</v>
+        <v>-1.02419937541606E-2</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -17133,11 +17133,11 @@
       <c r="E98" s="75">
         <v>-8.8249417E-3</v>
       </c>
-      <c r="F98" s="8">
-        <v>1110.0253600000001</v>
+      <c r="F98">
+        <v>1110.025359904952</v>
       </c>
       <c r="G98">
-        <v>-8.8958720000000008E-3</v>
+        <v>-8.8958721635436864E-3</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -17156,11 +17156,11 @@
       <c r="E99" s="75">
         <v>-7.6641073000000004E-3</v>
       </c>
-      <c r="F99" s="8">
-        <v>1110.0259639999999</v>
+      <c r="F99">
+        <v>1110.0259639697711</v>
       </c>
       <c r="G99">
-        <v>-7.7266599999999998E-3</v>
+        <v>-7.7266595966887074E-3</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17179,11 +17179,11 @@
       <c r="E100" s="78">
         <v>-6.6559584999999998E-3</v>
       </c>
-      <c r="F100" s="8">
-        <v>1110.0264890000001</v>
+      <c r="F100">
+        <v>1110.026488617882</v>
       </c>
       <c r="G100">
-        <v>-6.7111100000000002E-3</v>
+        <v>-6.7111098295503076E-3</v>
       </c>
     </row>
   </sheetData>
@@ -17196,7 +17196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7AAAFD-7D85-48CA-BD33-8DA3CB104A26}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -18706,14 +18706,14 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5BE1806-0A7E-49F1-AE59-165ADD2270EC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="8c01272d-a0a3-40dc-a393-2041f81f19c5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="789f3669-58e9-453a-aab3-9449a398dc0e"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
